--- a/555.xlsx
+++ b/555.xlsx
@@ -8,9 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS_Workstation\Desktop\excelize_json_practice\excelize_json_practice\PI_SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB51799-666D-4385-ADCA-21709801DF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="3" r:id="rId1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="126">
   <si>
     <t>Gabriel</t>
   </si>
@@ -47,17 +46,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="25"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>佑</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="26"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve"> 錋 企 業 股 份 有 限 公司</t>
     </r>
@@ -65,36 +64,39 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">81248 </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>高雄巿小港區店中路</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>18</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>號</t>
     </r>
+  </si>
+  <si>
+    <t>Tel: +886-7-8060232</t>
   </si>
   <si>
     <t>Fax: +886-7-8039592</t>
@@ -141,17 +143,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">3. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>包裝</t>
     </r>
@@ -159,25 +161,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">4. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>單件重量</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>:</t>
     </r>
@@ -185,25 +187,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">5. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>噴字</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>:</t>
     </r>
@@ -211,25 +213,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">6. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>內徑</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>:</t>
     </r>
@@ -243,25 +245,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">8. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>嘜頭</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>:</t>
     </r>
@@ -269,25 +271,25 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t xml:space="preserve">9. </t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>洞口方向</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>:</t>
     </r>
@@ -313,17 +315,17 @@
   <si>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>備註</t>
     </r>
     <r>
       <rPr>
+        <rFont val="BiauKai"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="BiauKai"/>
       </rPr>
       <t>:</t>
     </r>
@@ -490,20 +492,20 @@
   <si>
     <r>
       <rPr>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
       </rPr>
       <t>訂單重量</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">  
 (MT)</t>
@@ -513,30 +515,30 @@
   <si>
     <r>
       <rPr>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
       </rPr>
       <t>成品價</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>/</t>
     </r>
     <r>
       <rPr>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
       </rPr>
       <t>基價</t>
     </r>
@@ -545,20 +547,20 @@
   <si>
     <r>
       <rPr>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
       </rPr>
       <t>總額</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
         <rFont val="BiauKai"/>
         <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="12"/>
       </rPr>
       <t>(USD)</t>
     </r>
@@ -570,11 +572,11 @@
     </r>
     <r>
       <rPr>
+        <rFont val="微軟正黑體"/>
+        <charset val="136"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
       </rPr>
       <t>貼膜</t>
     </r>
@@ -641,7 +643,7 @@
     <t xml:space="preserve">□中性包裝 ■標準外銷包裝 </t>
   </si>
   <si>
-    <t xml:space="preserve">卷: Max. 3.30MT 版: Max. 2.50MT  □淨重■毛重 </t>
+    <t xml:space="preserve">卷: Max. 3.3MT 版: Max. 2.5MT  □淨重■毛重 </t>
   </si>
   <si>
     <t>■需要□不需要 (GRADE/ FINISH/ THEORETICAL THICKNESS/ WIDTH/ LENGTH/ COIL NO.)</t>
@@ -689,7 +691,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="6">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="176" formatCode="m/d"/>
@@ -698,7 +700,7 @@
     <numFmt numFmtId="179" formatCode="[$US$]#,##0.00"/>
     <numFmt numFmtId="180" formatCode="0.0&quot;MT&quot;"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -729,33 +731,33 @@
       <name val="BiauKai"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <u/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="BiauKai"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="BiauKai"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="BiauKai"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="18"/>
       <name val="BiauKai"/>
     </font>
@@ -789,13 +791,13 @@
       <name val="BiauKai"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Microsoft jhenhei"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Microsoft jhenhei"/>
@@ -817,7 +819,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
@@ -877,6 +879,12 @@
       <name val="BiauKai"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1288,290 +1296,293 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="92">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="93">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="6" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="6" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" readingOrder="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Hyperlink" xfId="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1584,7 +1595,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1600,15 +1611,9 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2" descr="Signature.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr="Signature.jpg"/>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="false"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1622,13 +1627,11 @@
           <a:off x="0" y="0"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:ln/>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1932,31 +1935,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFF2CC"/>
-    <outlinePr summaryBelow="0" summaryRight="0" showOutlineSymbols="0"/>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="false" summaryRight="false" showOutlineSymbols="false"/>
+    <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="104" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="true" topLeftCell="A26" zoomScale="104" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="6.75"/>
+    <col customWidth="true" max="2" min="2" width="19.625"/>
+    <col customWidth="true" max="3" min="3" width="9.875"/>
+    <col customWidth="true" max="4" min="4" width="14.25"/>
+    <col customWidth="true" max="5" min="5" width="24.5"/>
+    <col customWidth="true" max="6" min="6" width="11.625"/>
+    <col customWidth="true" max="7" min="7" width="14.5"/>
+    <col customWidth="true" max="8" min="8" width="22.5"/>
+    <col customWidth="true" max="9" min="9" width="11.625"/>
+    <col customWidth="true" max="10" min="10" width="13.25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="81" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="67"/>
@@ -1970,7 +1973,7 @@
       <c r="J1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="82" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="67"/>
@@ -1986,7 +1989,7 @@
     <row r="3" spans="1:10" ht="16.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1995,7 +1998,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1"/>
     </row>
@@ -2023,9 +2026,9 @@
       <c r="I5" s="4"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>6</v>
+    <row r="6" spans="1:10" ht="46.5" customHeight="true">
+      <c r="A6" s="83" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -2037,28 +2040,28 @@
       <c r="I6" s="67"/>
       <c r="J6" s="67"/>
     </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A7" s="66" t="s">
-        <v>7</v>
+    <row r="7" spans="1:10" ht="24.75" customHeight="true">
+      <c r="A7" s="80" t="s">
+        <v>8</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
-      <c r="H7" s="71" t="s">
-        <v>93</v>
+      <c r="H7" s="84" t="s">
+        <v>94</v>
       </c>
       <c r="I7" s="67"/>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1">
-      <c r="A8" s="66" t="s">
-        <v>9</v>
+    <row r="8" spans="1:10" ht="24" customHeight="true">
+      <c r="A8" s="80" t="s">
+        <v>10</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="6" t="s">
@@ -2067,30 +2070,29 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
-      <c r="H8" s="66" t="s">
-        <v>90</v>
+      <c r="H8" s="80" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="67"/>
     </row>
-    <row r="9" spans="1:10" ht="27" customHeight="1">
-      <c r="A9" s="66" t="s">
-        <v>11</v>
+    <row r="9" spans="1:10" ht="27" customHeight="true">
+      <c r="A9" s="80" t="s">
+        <v>12</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="9">
-        <f>H7+45</f>
-        <v>45127</v>
+        <f>=H7+45</f>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
-      <c r="H9" s="66" t="s">
-        <v>94</v>
+      <c r="H9" s="80" t="s">
+        <v>95</v>
       </c>
       <c r="I9" s="67"/>
     </row>
@@ -2106,7 +2108,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" ht="37.5" customHeight="1">
+    <row r="11" spans="1:10" ht="37.5" customHeight="true">
       <c r="A11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2114,42 +2116,42 @@
         <v>1</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="D11" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="69"/>
       <c r="F11" s="63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G11" s="56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="63" t="s">
-        <v>87</v>
+      <c r="J11" s="56" t="s">
+        <v>17</v>
       </c>
-      <c r="J11" s="56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25" customHeight="1">
+    </row>
+    <row r="12" spans="1:10" ht="38.25" customHeight="true">
       <c r="A12" s="16">
         <v>1</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="D12" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="69"/>
       <c r="F12" s="18">
         <v>12</v>
       </c>
@@ -2157,30 +2159,29 @@
         <v>1685</v>
       </c>
       <c r="H12" s="20">
-        <f>F12*G12</f>
-        <v>20220</v>
+        <f>=F12*G12</f>
       </c>
       <c r="I12" s="57">
         <v>1600</v>
       </c>
       <c r="J12" s="62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="38.25" customHeight="1">
+    <row r="13" spans="1:10" ht="38.25" customHeight="true">
       <c r="A13" s="16">
         <v>2</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
-      <c r="D13" s="74" t="s">
-        <v>100</v>
+      <c r="D13" s="79" t="s">
+        <v>101</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="18">
         <v>4</v>
       </c>
@@ -2188,30 +2189,29 @@
         <v>1700</v>
       </c>
       <c r="H13" s="20">
-        <f>F13*G13</f>
-        <v>6800</v>
+        <f>=F13*G13</f>
       </c>
       <c r="I13" s="57">
         <v>1600</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="38.25" customHeight="1">
+    <row r="14" spans="1:10" ht="38.25" customHeight="true">
       <c r="A14" s="16">
         <v>3</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
-      <c r="D14" s="74" t="s">
-        <v>101</v>
+      <c r="D14" s="79" t="s">
+        <v>102</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="18">
         <v>5</v>
       </c>
@@ -2219,30 +2219,29 @@
         <v>1780</v>
       </c>
       <c r="H14" s="20">
-        <f>F14*G14</f>
-        <v>8900</v>
+        <f>=F14*G14</f>
       </c>
       <c r="I14" s="57">
         <v>1720</v>
       </c>
       <c r="J14" s="58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="40.5" customHeight="1">
+    <row r="15" spans="1:10" ht="40.5" customHeight="true">
       <c r="A15" s="16">
         <v>4</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
-      <c r="D15" s="74" t="s">
-        <v>102</v>
+      <c r="D15" s="79" t="s">
+        <v>103</v>
       </c>
-      <c r="E15" s="73"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="18">
         <v>3.5</v>
       </c>
@@ -2250,32 +2249,29 @@
         <v>1745</v>
       </c>
       <c r="H15" s="20">
-        <f>F15*G15</f>
-        <v>6107.5</v>
+        <f>=F15*G15</f>
       </c>
       <c r="I15" s="57">
         <v>1605</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="35.25" customHeight="1">
-      <c r="A16" s="75" t="s">
-        <v>17</v>
+    <row r="16" spans="1:10" ht="35.25" customHeight="true">
+      <c r="A16" s="76" t="s">
+        <v>18</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="21">
-        <f>SUM(F12:F15)</f>
-        <v>24.5</v>
+        <f>=SUM(F12:F15)</f>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="23">
-        <f>SUM(H12:H15)</f>
-        <v>42027.5</v>
+        <f>=SUM(H12:H15)</f>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="59"/>
@@ -2292,13 +2288,13 @@
       <c r="I17" s="27"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A18" s="77" t="s">
-        <v>18</v>
+    <row r="18" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A18" s="73" t="s">
+        <v>19</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
@@ -2308,13 +2304,13 @@
       <c r="I18" s="28"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>89</v>
+    <row r="19" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A19" s="73" t="s">
+        <v>90</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
@@ -2324,10 +2320,10 @@
       <c r="I19" s="29"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1">
+    <row r="20" spans="1:10" ht="22.5" customHeight="true">
       <c r="A20" s="29"/>
       <c r="C20" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -2337,10 +2333,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1">
+    <row r="21" spans="1:10" ht="22.5" customHeight="true">
       <c r="A21" s="29"/>
       <c r="C21" s="64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
@@ -2350,13 +2346,13 @@
       <c r="I21" s="29"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A22" s="78" t="s">
-        <v>19</v>
+    <row r="22" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A22" s="66" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="67"/>
       <c r="C22" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2366,13 +2362,13 @@
       <c r="I22" s="29"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A23" s="78" t="s">
-        <v>20</v>
+    <row r="23" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A23" s="66" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="67"/>
       <c r="C23" s="65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
@@ -2382,13 +2378,13 @@
       <c r="I23" s="29"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A24" s="78" t="s">
-        <v>21</v>
+    <row r="24" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A24" s="66" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="67"/>
       <c r="C24" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
@@ -2398,13 +2394,13 @@
       <c r="I24" s="29"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A25" s="78" t="s">
-        <v>22</v>
+    <row r="25" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A25" s="66" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
@@ -2414,141 +2410,141 @@
       <c r="I25" s="29"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A26" s="78" t="s">
-        <v>23</v>
+    <row r="26" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A26" s="66" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="67"/>
       <c r="C26" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="H26" s="60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A27" s="78" t="s">
-        <v>25</v>
+    <row r="27" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A27" s="66" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="67"/>
       <c r="C27" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="H27" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A28" s="78" t="s">
-        <v>26</v>
+    <row r="28" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A28" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="67"/>
       <c r="C28" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
       <c r="H28" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I28" s="31">
         <v>16</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A29" s="78" t="s">
-        <v>27</v>
+    <row r="29" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A29" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="67"/>
       <c r="C29" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A30" s="78" t="s">
-        <v>28</v>
+    <row r="30" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A30" s="66" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="67"/>
       <c r="C30" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="H30" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I30" s="31"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A31" s="78" t="s">
-        <v>29</v>
+    <row r="31" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A31" s="66" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="67"/>
-      <c r="C31" s="79" t="s">
-        <v>118</v>
+      <c r="C31" s="75" t="s">
+        <v>119</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="H31" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I31" s="31">
         <v>3.5</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A32" s="78" t="s">
-        <v>30</v>
+    <row r="32" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A32" s="66" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A33" s="78" t="s">
-        <v>31</v>
+    <row r="33" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A33" s="66" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="H33" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I33" s="31"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A34" s="78" t="s">
-        <v>32</v>
+    <row r="34" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A34" s="66" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="67"/>
       <c r="C34" s="34"/>
@@ -2556,75 +2552,74 @@
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
       <c r="H34" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I34" s="31">
         <v>5</v>
       </c>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A35" s="77" t="s">
-        <v>33</v>
+    <row r="35" spans="1:10" ht="22.5" customHeight="true">
+      <c r="A35" s="73" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="67"/>
-      <c r="C35" s="79" t="s">
-        <v>34</v>
+      <c r="C35" s="75" t="s">
+        <v>35</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
       <c r="H35" s="29"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="77"/>
+    <row r="36" spans="1:10" ht="15.75" customHeight="true">
+      <c r="A36" s="73"/>
       <c r="B36" s="67"/>
-      <c r="C36" s="79" t="s">
-        <v>35</v>
+      <c r="C36" s="75" t="s">
+        <v>36</v>
       </c>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
       <c r="H36" s="60"/>
       <c r="I36" s="55"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="77"/>
+    <row r="37" spans="1:10" ht="15.75" customHeight="true">
+      <c r="A37" s="73"/>
       <c r="B37" s="67"/>
-      <c r="C37" s="79" t="s">
-        <v>36</v>
+      <c r="C37" s="75" t="s">
+        <v>37</v>
       </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
       <c r="H37" s="29"/>
       <c r="I37" s="31">
-        <f>SUM(I28:I36)</f>
-        <v>24.5</v>
+        <f>=SUM(I28:I36)</f>
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="77"/>
+    <row r="38" spans="1:10" ht="15.75" customHeight="true">
+      <c r="A38" s="73"/>
       <c r="B38" s="67"/>
-      <c r="C38" s="79" t="s">
-        <v>37</v>
+      <c r="C38" s="75" t="s">
+        <v>38</v>
       </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
       <c r="G38" s="28"/>
       <c r="H38" s="29"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="true">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2632,1000 +2627,1029 @@
       <c r="H39" s="29"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A40" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="84" t="s">
+    <row r="40" spans="1:10" ht="25.5" customHeight="true">
+      <c r="A40" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="61" t="s">
+      <c r="B40" s="69"/>
+      <c r="C40" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="84" t="s">
+      <c r="D40" s="69"/>
+      <c r="E40" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="73"/>
+      <c r="F40" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="69"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="1:10" ht="70.5" customHeight="1">
-      <c r="A41" s="81"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="82"/>
+    <row r="41" spans="1:10" ht="70.5" customHeight="true">
+      <c r="A41" s="70"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="71"/>
       <c r="E41" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F41" s="83" t="s">
+      <c r="F41" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="82"/>
+      <c r="G41" s="71"/>
       <c r="H41" s="36"/>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="43" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="44" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="45" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="46" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="47" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="48" spans="1:10" ht="15.75" customHeight="true"/>
+    <row r="49" ht="15.75" customHeight="true"/>
+    <row r="50" ht="15.75" customHeight="true"/>
+    <row r="51" ht="15.75" customHeight="true"/>
+    <row r="52" ht="15.75" customHeight="true"/>
+    <row r="53" ht="15.75" customHeight="true"/>
+    <row r="54" ht="15.75" customHeight="true"/>
+    <row r="55" ht="15.75" customHeight="true"/>
+    <row r="56" ht="15.75" customHeight="true"/>
+    <row r="57" ht="15.75" customHeight="true"/>
+    <row r="58" ht="15.75" customHeight="true"/>
+    <row r="59" ht="15.75" customHeight="true"/>
+    <row r="60" ht="15.75" customHeight="true"/>
+    <row r="61" ht="15.75" customHeight="true"/>
+    <row r="62" ht="15.75" customHeight="true"/>
+    <row r="63" ht="15.75" customHeight="true"/>
+    <row r="64" ht="15.75" customHeight="true"/>
+    <row r="65" ht="15.75" customHeight="true"/>
+    <row r="66" ht="15.75" customHeight="true"/>
+    <row r="67" ht="15.75" customHeight="true"/>
+    <row r="68" ht="15.75" customHeight="true"/>
+    <row r="69" ht="15.75" customHeight="true"/>
+    <row r="70" ht="15.75" customHeight="true"/>
+    <row r="71" ht="15.75" customHeight="true"/>
+    <row r="72" ht="15.75" customHeight="true"/>
+    <row r="73" ht="15.75" customHeight="true"/>
+    <row r="74" ht="15.75" customHeight="true"/>
+    <row r="75" ht="15.75" customHeight="true"/>
+    <row r="76" ht="15.75" customHeight="true"/>
+    <row r="77" ht="15.75" customHeight="true"/>
+    <row r="78" ht="15.75" customHeight="true"/>
+    <row r="79" ht="15.75" customHeight="true"/>
+    <row r="80" ht="15.75" customHeight="true"/>
+    <row r="81" ht="15.75" customHeight="true"/>
+    <row r="82" ht="15.75" customHeight="true"/>
+    <row r="83" ht="15.75" customHeight="true"/>
+    <row r="84" ht="15.75" customHeight="true"/>
+    <row r="85" ht="15.75" customHeight="true"/>
+    <row r="86" ht="15.75" customHeight="true"/>
+    <row r="87" ht="15.75" customHeight="true"/>
+    <row r="88" ht="15.75" customHeight="true"/>
+    <row r="89" ht="15.75" customHeight="true"/>
+    <row r="90" ht="15.75" customHeight="true"/>
+    <row r="91" ht="15.75" customHeight="true"/>
+    <row r="92" ht="15.75" customHeight="true"/>
+    <row r="93" ht="15.75" customHeight="true"/>
+    <row r="94" ht="15.75" customHeight="true"/>
+    <row r="95" ht="15.75" customHeight="true"/>
+    <row r="96" ht="15.75" customHeight="true"/>
+    <row r="97" ht="15.75" customHeight="true"/>
+    <row r="98" ht="15.75" customHeight="true"/>
+    <row r="99" ht="15.75" customHeight="true"/>
+    <row r="100" ht="15.75" customHeight="true"/>
+    <row r="101" ht="15.75" customHeight="true"/>
+    <row r="102" ht="15.75" customHeight="true"/>
+    <row r="103" ht="15.75" customHeight="true"/>
+    <row r="104" ht="15.75" customHeight="true"/>
+    <row r="105" ht="15.75" customHeight="true"/>
+    <row r="106" ht="15.75" customHeight="true"/>
+    <row r="107" ht="15.75" customHeight="true"/>
+    <row r="108" ht="15.75" customHeight="true"/>
+    <row r="109" ht="15.75" customHeight="true"/>
+    <row r="110" ht="15.75" customHeight="true"/>
+    <row r="111" ht="15.75" customHeight="true"/>
+    <row r="112" ht="15.75" customHeight="true"/>
+    <row r="113" ht="15.75" customHeight="true"/>
+    <row r="114" ht="15.75" customHeight="true"/>
+    <row r="115" ht="15.75" customHeight="true"/>
+    <row r="116" ht="15.75" customHeight="true"/>
+    <row r="117" ht="15.75" customHeight="true"/>
+    <row r="118" ht="15.75" customHeight="true"/>
+    <row r="119" ht="15.75" customHeight="true"/>
+    <row r="120" ht="15.75" customHeight="true"/>
+    <row r="121" ht="15.75" customHeight="true"/>
+    <row r="122" ht="15.75" customHeight="true"/>
+    <row r="123" ht="15.75" customHeight="true"/>
+    <row r="124" ht="15.75" customHeight="true"/>
+    <row r="125" ht="15.75" customHeight="true"/>
+    <row r="126" ht="15.75" customHeight="true"/>
+    <row r="127" ht="15.75" customHeight="true"/>
+    <row r="128" ht="15.75" customHeight="true"/>
+    <row r="129" ht="15.75" customHeight="true"/>
+    <row r="130" ht="15.75" customHeight="true"/>
+    <row r="131" ht="15.75" customHeight="true"/>
+    <row r="132" ht="15.75" customHeight="true"/>
+    <row r="133" ht="15.75" customHeight="true"/>
+    <row r="134" ht="15.75" customHeight="true"/>
+    <row r="135" ht="15.75" customHeight="true"/>
+    <row r="136" ht="15.75" customHeight="true"/>
+    <row r="137" ht="15.75" customHeight="true"/>
+    <row r="138" ht="15.75" customHeight="true"/>
+    <row r="139" ht="15.75" customHeight="true"/>
+    <row r="140" ht="15.75" customHeight="true"/>
+    <row r="141" ht="15.75" customHeight="true"/>
+    <row r="142" ht="15.75" customHeight="true"/>
+    <row r="143" ht="15.75" customHeight="true"/>
+    <row r="144" ht="15.75" customHeight="true"/>
+    <row r="145" ht="15.75" customHeight="true"/>
+    <row r="146" ht="15.75" customHeight="true"/>
+    <row r="147" ht="15.75" customHeight="true"/>
+    <row r="148" ht="15.75" customHeight="true"/>
+    <row r="149" ht="15.75" customHeight="true"/>
+    <row r="150" ht="15.75" customHeight="true"/>
+    <row r="151" ht="15.75" customHeight="true"/>
+    <row r="152" ht="15.75" customHeight="true"/>
+    <row r="153" ht="15.75" customHeight="true"/>
+    <row r="154" ht="15.75" customHeight="true"/>
+    <row r="155" ht="15.75" customHeight="true"/>
+    <row r="156" ht="15.75" customHeight="true"/>
+    <row r="157" ht="15.75" customHeight="true"/>
+    <row r="158" ht="15.75" customHeight="true"/>
+    <row r="159" ht="15.75" customHeight="true"/>
+    <row r="160" ht="15.75" customHeight="true"/>
+    <row r="161" ht="15.75" customHeight="true"/>
+    <row r="162" ht="15.75" customHeight="true"/>
+    <row r="163" ht="15.75" customHeight="true"/>
+    <row r="164" ht="15.75" customHeight="true"/>
+    <row r="165" ht="15.75" customHeight="true"/>
+    <row r="166" ht="15.75" customHeight="true"/>
+    <row r="167" ht="15.75" customHeight="true"/>
+    <row r="168" ht="15.75" customHeight="true"/>
+    <row r="169" ht="15.75" customHeight="true"/>
+    <row r="170" ht="15.75" customHeight="true"/>
+    <row r="171" ht="15.75" customHeight="true"/>
+    <row r="172" ht="15.75" customHeight="true"/>
+    <row r="173" ht="15.75" customHeight="true"/>
+    <row r="174" ht="15.75" customHeight="true"/>
+    <row r="175" ht="15.75" customHeight="true"/>
+    <row r="176" ht="15.75" customHeight="true"/>
+    <row r="177" ht="15.75" customHeight="true"/>
+    <row r="178" ht="15.75" customHeight="true"/>
+    <row r="179" ht="15.75" customHeight="true"/>
+    <row r="180" ht="15.75" customHeight="true"/>
+    <row r="181" ht="15.75" customHeight="true"/>
+    <row r="182" ht="15.75" customHeight="true"/>
+    <row r="183" ht="15.75" customHeight="true"/>
+    <row r="184" ht="15.75" customHeight="true"/>
+    <row r="185" ht="15.75" customHeight="true"/>
+    <row r="186" ht="15.75" customHeight="true"/>
+    <row r="187" ht="15.75" customHeight="true"/>
+    <row r="188" ht="15.75" customHeight="true"/>
+    <row r="189" ht="15.75" customHeight="true"/>
+    <row r="190" ht="15.75" customHeight="true"/>
+    <row r="191" ht="15.75" customHeight="true"/>
+    <row r="192" ht="15.75" customHeight="true"/>
+    <row r="193" ht="15.75" customHeight="true"/>
+    <row r="194" ht="15.75" customHeight="true"/>
+    <row r="195" ht="15.75" customHeight="true"/>
+    <row r="196" ht="15.75" customHeight="true"/>
+    <row r="197" ht="15.75" customHeight="true"/>
+    <row r="198" ht="15.75" customHeight="true"/>
+    <row r="199" ht="15.75" customHeight="true"/>
+    <row r="200" ht="15.75" customHeight="true"/>
+    <row r="201" ht="15.75" customHeight="true"/>
+    <row r="202" ht="15.75" customHeight="true"/>
+    <row r="203" ht="15.75" customHeight="true"/>
+    <row r="204" ht="15.75" customHeight="true"/>
+    <row r="205" ht="15.75" customHeight="true"/>
+    <row r="206" ht="15.75" customHeight="true"/>
+    <row r="207" ht="15.75" customHeight="true"/>
+    <row r="208" ht="15.75" customHeight="true"/>
+    <row r="209" ht="15.75" customHeight="true"/>
+    <row r="210" ht="15.75" customHeight="true"/>
+    <row r="211" ht="15.75" customHeight="true"/>
+    <row r="212" ht="15.75" customHeight="true"/>
+    <row r="213" ht="15.75" customHeight="true"/>
+    <row r="214" ht="15.75" customHeight="true"/>
+    <row r="215" ht="15.75" customHeight="true"/>
+    <row r="216" ht="15.75" customHeight="true"/>
+    <row r="217" ht="15.75" customHeight="true"/>
+    <row r="218" ht="15.75" customHeight="true"/>
+    <row r="219" ht="15.75" customHeight="true"/>
+    <row r="220" ht="15.75" customHeight="true"/>
+    <row r="221" ht="15.75" customHeight="true"/>
+    <row r="222" ht="15.75" customHeight="true"/>
+    <row r="223" ht="15.75" customHeight="true"/>
+    <row r="224" ht="15.75" customHeight="true"/>
+    <row r="225" ht="15.75" customHeight="true"/>
+    <row r="226" ht="15.75" customHeight="true"/>
+    <row r="227" ht="15.75" customHeight="true"/>
+    <row r="228" ht="15.75" customHeight="true"/>
+    <row r="229" ht="15.75" customHeight="true"/>
+    <row r="230" ht="15.75" customHeight="true"/>
+    <row r="231" ht="15.75" customHeight="true"/>
+    <row r="232" ht="15.75" customHeight="true"/>
+    <row r="233" ht="15.75" customHeight="true"/>
+    <row r="234" ht="15.75" customHeight="true"/>
+    <row r="235" ht="15.75" customHeight="true"/>
+    <row r="236" ht="15.75" customHeight="true"/>
+    <row r="237" ht="15.75" customHeight="true"/>
+    <row r="238" ht="15.75" customHeight="true"/>
+    <row r="239" ht="15.75" customHeight="true"/>
+    <row r="240" ht="15.75" customHeight="true"/>
+    <row r="241" ht="15.75" customHeight="true"/>
+    <row r="242" ht="15.75" customHeight="true"/>
+    <row r="243" ht="15.75" customHeight="true"/>
+    <row r="244" ht="15.75" customHeight="true"/>
+    <row r="245" ht="15.75" customHeight="true"/>
+    <row r="246" ht="15.75" customHeight="true"/>
+    <row r="247" ht="15.75" customHeight="true"/>
+    <row r="248" ht="15.75" customHeight="true"/>
+    <row r="249" ht="15.75" customHeight="true"/>
+    <row r="250" ht="15.75" customHeight="true"/>
+    <row r="251" ht="15.75" customHeight="true"/>
+    <row r="252" ht="15.75" customHeight="true"/>
+    <row r="253" ht="15.75" customHeight="true"/>
+    <row r="254" ht="15.75" customHeight="true"/>
+    <row r="255" ht="15.75" customHeight="true"/>
+    <row r="256" ht="15.75" customHeight="true"/>
+    <row r="257" ht="15.75" customHeight="true"/>
+    <row r="258" ht="15.75" customHeight="true"/>
+    <row r="259" ht="15.75" customHeight="true"/>
+    <row r="260" ht="15.75" customHeight="true"/>
+    <row r="261" ht="15.75" customHeight="true"/>
+    <row r="262" ht="15.75" customHeight="true"/>
+    <row r="263" ht="15.75" customHeight="true"/>
+    <row r="264" ht="15.75" customHeight="true"/>
+    <row r="265" ht="15.75" customHeight="true"/>
+    <row r="266" ht="15.75" customHeight="true"/>
+    <row r="267" ht="15.75" customHeight="true"/>
+    <row r="268" ht="15.75" customHeight="true"/>
+    <row r="269" ht="15.75" customHeight="true"/>
+    <row r="270" ht="15.75" customHeight="true"/>
+    <row r="271" ht="15.75" customHeight="true"/>
+    <row r="272" ht="15.75" customHeight="true"/>
+    <row r="273" ht="15.75" customHeight="true"/>
+    <row r="274" ht="15.75" customHeight="true"/>
+    <row r="275" ht="15.75" customHeight="true"/>
+    <row r="276" ht="15.75" customHeight="true"/>
+    <row r="277" ht="15.75" customHeight="true"/>
+    <row r="278" ht="15.75" customHeight="true"/>
+    <row r="279" ht="15.75" customHeight="true"/>
+    <row r="280" ht="15.75" customHeight="true"/>
+    <row r="281" ht="15.75" customHeight="true"/>
+    <row r="282" ht="15.75" customHeight="true"/>
+    <row r="283" ht="15.75" customHeight="true"/>
+    <row r="284" ht="15.75" customHeight="true"/>
+    <row r="285" ht="15.75" customHeight="true"/>
+    <row r="286" ht="15.75" customHeight="true"/>
+    <row r="287" ht="15.75" customHeight="true"/>
+    <row r="288" ht="15.75" customHeight="true"/>
+    <row r="289" ht="15.75" customHeight="true"/>
+    <row r="290" ht="15.75" customHeight="true"/>
+    <row r="291" ht="15.75" customHeight="true"/>
+    <row r="292" ht="15.75" customHeight="true"/>
+    <row r="293" ht="15.75" customHeight="true"/>
+    <row r="294" ht="15.75" customHeight="true"/>
+    <row r="295" ht="15.75" customHeight="true"/>
+    <row r="296" ht="15.75" customHeight="true"/>
+    <row r="297" ht="15.75" customHeight="true"/>
+    <row r="298" ht="15.75" customHeight="true"/>
+    <row r="299" ht="15.75" customHeight="true"/>
+    <row r="300" ht="15.75" customHeight="true"/>
+    <row r="301" ht="15.75" customHeight="true"/>
+    <row r="302" ht="15.75" customHeight="true"/>
+    <row r="303" ht="15.75" customHeight="true"/>
+    <row r="304" ht="15.75" customHeight="true"/>
+    <row r="305" ht="15.75" customHeight="true"/>
+    <row r="306" ht="15.75" customHeight="true"/>
+    <row r="307" ht="15.75" customHeight="true"/>
+    <row r="308" ht="15.75" customHeight="true"/>
+    <row r="309" ht="15.75" customHeight="true"/>
+    <row r="310" ht="15.75" customHeight="true"/>
+    <row r="311" ht="15.75" customHeight="true"/>
+    <row r="312" ht="15.75" customHeight="true"/>
+    <row r="313" ht="15.75" customHeight="true"/>
+    <row r="314" ht="15.75" customHeight="true"/>
+    <row r="315" ht="15.75" customHeight="true"/>
+    <row r="316" ht="15.75" customHeight="true"/>
+    <row r="317" ht="15.75" customHeight="true"/>
+    <row r="318" ht="15.75" customHeight="true"/>
+    <row r="319" ht="15.75" customHeight="true"/>
+    <row r="320" ht="15.75" customHeight="true"/>
+    <row r="321" ht="15.75" customHeight="true"/>
+    <row r="322" ht="15.75" customHeight="true"/>
+    <row r="323" ht="15.75" customHeight="true"/>
+    <row r="324" ht="15.75" customHeight="true"/>
+    <row r="325" ht="15.75" customHeight="true"/>
+    <row r="326" ht="15.75" customHeight="true"/>
+    <row r="327" ht="15.75" customHeight="true"/>
+    <row r="328" ht="15.75" customHeight="true"/>
+    <row r="329" ht="15.75" customHeight="true"/>
+    <row r="330" ht="15.75" customHeight="true"/>
+    <row r="331" ht="15.75" customHeight="true"/>
+    <row r="332" ht="15.75" customHeight="true"/>
+    <row r="333" ht="15.75" customHeight="true"/>
+    <row r="334" ht="15.75" customHeight="true"/>
+    <row r="335" ht="15.75" customHeight="true"/>
+    <row r="336" ht="15.75" customHeight="true"/>
+    <row r="337" ht="15.75" customHeight="true"/>
+    <row r="338" ht="15.75" customHeight="true"/>
+    <row r="339" ht="15.75" customHeight="true"/>
+    <row r="340" ht="15.75" customHeight="true"/>
+    <row r="341" ht="15.75" customHeight="true"/>
+    <row r="342" ht="15.75" customHeight="true"/>
+    <row r="343" ht="15.75" customHeight="true"/>
+    <row r="344" ht="15.75" customHeight="true"/>
+    <row r="345" ht="15.75" customHeight="true"/>
+    <row r="346" ht="15.75" customHeight="true"/>
+    <row r="347" ht="15.75" customHeight="true"/>
+    <row r="348" ht="15.75" customHeight="true"/>
+    <row r="349" ht="15.75" customHeight="true"/>
+    <row r="350" ht="15.75" customHeight="true"/>
+    <row r="351" ht="15.75" customHeight="true"/>
+    <row r="352" ht="15.75" customHeight="true"/>
+    <row r="353" ht="15.75" customHeight="true"/>
+    <row r="354" ht="15.75" customHeight="true"/>
+    <row r="355" ht="15.75" customHeight="true"/>
+    <row r="356" ht="15.75" customHeight="true"/>
+    <row r="357" ht="15.75" customHeight="true"/>
+    <row r="358" ht="15.75" customHeight="true"/>
+    <row r="359" ht="15.75" customHeight="true"/>
+    <row r="360" ht="15.75" customHeight="true"/>
+    <row r="361" ht="15.75" customHeight="true"/>
+    <row r="362" ht="15.75" customHeight="true"/>
+    <row r="363" ht="15.75" customHeight="true"/>
+    <row r="364" ht="15.75" customHeight="true"/>
+    <row r="365" ht="15.75" customHeight="true"/>
+    <row r="366" ht="15.75" customHeight="true"/>
+    <row r="367" ht="15.75" customHeight="true"/>
+    <row r="368" ht="15.75" customHeight="true"/>
+    <row r="369" ht="15.75" customHeight="true"/>
+    <row r="370" ht="15.75" customHeight="true"/>
+    <row r="371" ht="15.75" customHeight="true"/>
+    <row r="372" ht="15.75" customHeight="true"/>
+    <row r="373" ht="15.75" customHeight="true"/>
+    <row r="374" ht="15.75" customHeight="true"/>
+    <row r="375" ht="15.75" customHeight="true"/>
+    <row r="376" ht="15.75" customHeight="true"/>
+    <row r="377" ht="15.75" customHeight="true"/>
+    <row r="378" ht="15.75" customHeight="true"/>
+    <row r="379" ht="15.75" customHeight="true"/>
+    <row r="380" ht="15.75" customHeight="true"/>
+    <row r="381" ht="15.75" customHeight="true"/>
+    <row r="382" ht="15.75" customHeight="true"/>
+    <row r="383" ht="15.75" customHeight="true"/>
+    <row r="384" ht="15.75" customHeight="true"/>
+    <row r="385" ht="15.75" customHeight="true"/>
+    <row r="386" ht="15.75" customHeight="true"/>
+    <row r="387" ht="15.75" customHeight="true"/>
+    <row r="388" ht="15.75" customHeight="true"/>
+    <row r="389" ht="15.75" customHeight="true"/>
+    <row r="390" ht="15.75" customHeight="true"/>
+    <row r="391" ht="15.75" customHeight="true"/>
+    <row r="392" ht="15.75" customHeight="true"/>
+    <row r="393" ht="15.75" customHeight="true"/>
+    <row r="394" ht="15.75" customHeight="true"/>
+    <row r="395" ht="15.75" customHeight="true"/>
+    <row r="396" ht="15.75" customHeight="true"/>
+    <row r="397" ht="15.75" customHeight="true"/>
+    <row r="398" ht="15.75" customHeight="true"/>
+    <row r="399" ht="15.75" customHeight="true"/>
+    <row r="400" ht="15.75" customHeight="true"/>
+    <row r="401" ht="15.75" customHeight="true"/>
+    <row r="402" ht="15.75" customHeight="true"/>
+    <row r="403" ht="15.75" customHeight="true"/>
+    <row r="404" ht="15.75" customHeight="true"/>
+    <row r="405" ht="15.75" customHeight="true"/>
+    <row r="406" ht="15.75" customHeight="true"/>
+    <row r="407" ht="15.75" customHeight="true"/>
+    <row r="408" ht="15.75" customHeight="true"/>
+    <row r="409" ht="15.75" customHeight="true"/>
+    <row r="410" ht="15.75" customHeight="true"/>
+    <row r="411" ht="15.75" customHeight="true"/>
+    <row r="412" ht="15.75" customHeight="true"/>
+    <row r="413" ht="15.75" customHeight="true"/>
+    <row r="414" ht="15.75" customHeight="true"/>
+    <row r="415" ht="15.75" customHeight="true"/>
+    <row r="416" ht="15.75" customHeight="true"/>
+    <row r="417" ht="15.75" customHeight="true"/>
+    <row r="418" ht="15.75" customHeight="true"/>
+    <row r="419" ht="15.75" customHeight="true"/>
+    <row r="420" ht="15.75" customHeight="true"/>
+    <row r="421" ht="15.75" customHeight="true"/>
+    <row r="422" ht="15.75" customHeight="true"/>
+    <row r="423" ht="15.75" customHeight="true"/>
+    <row r="424" ht="15.75" customHeight="true"/>
+    <row r="425" ht="15.75" customHeight="true"/>
+    <row r="426" ht="15.75" customHeight="true"/>
+    <row r="427" ht="15.75" customHeight="true"/>
+    <row r="428" ht="15.75" customHeight="true"/>
+    <row r="429" ht="15.75" customHeight="true"/>
+    <row r="430" ht="15.75" customHeight="true"/>
+    <row r="431" ht="15.75" customHeight="true"/>
+    <row r="432" ht="15.75" customHeight="true"/>
+    <row r="433" ht="15.75" customHeight="true"/>
+    <row r="434" ht="15.75" customHeight="true"/>
+    <row r="435" ht="15.75" customHeight="true"/>
+    <row r="436" ht="15.75" customHeight="true"/>
+    <row r="437" ht="15.75" customHeight="true"/>
+    <row r="438" ht="15.75" customHeight="true"/>
+    <row r="439" ht="15.75" customHeight="true"/>
+    <row r="440" ht="15.75" customHeight="true"/>
+    <row r="441" ht="15.75" customHeight="true"/>
+    <row r="442" ht="15.75" customHeight="true"/>
+    <row r="443" ht="15.75" customHeight="true"/>
+    <row r="444" ht="15.75" customHeight="true"/>
+    <row r="445" ht="15.75" customHeight="true"/>
+    <row r="446" ht="15.75" customHeight="true"/>
+    <row r="447" ht="15.75" customHeight="true"/>
+    <row r="448" ht="15.75" customHeight="true"/>
+    <row r="449" ht="15.75" customHeight="true"/>
+    <row r="450" ht="15.75" customHeight="true"/>
+    <row r="451" ht="15.75" customHeight="true"/>
+    <row r="452" ht="15.75" customHeight="true"/>
+    <row r="453" ht="15.75" customHeight="true"/>
+    <row r="454" ht="15.75" customHeight="true"/>
+    <row r="455" ht="15.75" customHeight="true"/>
+    <row r="456" ht="15.75" customHeight="true"/>
+    <row r="457" ht="15.75" customHeight="true"/>
+    <row r="458" ht="15.75" customHeight="true"/>
+    <row r="459" ht="15.75" customHeight="true"/>
+    <row r="460" ht="15.75" customHeight="true"/>
+    <row r="461" ht="15.75" customHeight="true"/>
+    <row r="462" ht="15.75" customHeight="true"/>
+    <row r="463" ht="15.75" customHeight="true"/>
+    <row r="464" ht="15.75" customHeight="true"/>
+    <row r="465" ht="15.75" customHeight="true"/>
+    <row r="466" ht="15.75" customHeight="true"/>
+    <row r="467" ht="15.75" customHeight="true"/>
+    <row r="468" ht="15.75" customHeight="true"/>
+    <row r="469" ht="15.75" customHeight="true"/>
+    <row r="470" ht="15.75" customHeight="true"/>
+    <row r="471" ht="15.75" customHeight="true"/>
+    <row r="472" ht="15.75" customHeight="true"/>
+    <row r="473" ht="15.75" customHeight="true"/>
+    <row r="474" ht="15.75" customHeight="true"/>
+    <row r="475" ht="15.75" customHeight="true"/>
+    <row r="476" ht="15.75" customHeight="true"/>
+    <row r="477" ht="15.75" customHeight="true"/>
+    <row r="478" ht="15.75" customHeight="true"/>
+    <row r="479" ht="15.75" customHeight="true"/>
+    <row r="480" ht="15.75" customHeight="true"/>
+    <row r="481" ht="15.75" customHeight="true"/>
+    <row r="482" ht="15.75" customHeight="true"/>
+    <row r="483" ht="15.75" customHeight="true"/>
+    <row r="484" ht="15.75" customHeight="true"/>
+    <row r="485" ht="15.75" customHeight="true"/>
+    <row r="486" ht="15.75" customHeight="true"/>
+    <row r="487" ht="15.75" customHeight="true"/>
+    <row r="488" ht="15.75" customHeight="true"/>
+    <row r="489" ht="15.75" customHeight="true"/>
+    <row r="490" ht="15.75" customHeight="true"/>
+    <row r="491" ht="15.75" customHeight="true"/>
+    <row r="492" ht="15.75" customHeight="true"/>
+    <row r="493" ht="15.75" customHeight="true"/>
+    <row r="494" ht="15.75" customHeight="true"/>
+    <row r="495" ht="15.75" customHeight="true"/>
+    <row r="496" ht="15.75" customHeight="true"/>
+    <row r="497" ht="15.75" customHeight="true"/>
+    <row r="498" ht="15.75" customHeight="true"/>
+    <row r="499" ht="15.75" customHeight="true"/>
+    <row r="500" ht="15.75" customHeight="true"/>
+    <row r="501" ht="15.75" customHeight="true"/>
+    <row r="502" ht="15.75" customHeight="true"/>
+    <row r="503" ht="15.75" customHeight="true"/>
+    <row r="504" ht="15.75" customHeight="true"/>
+    <row r="505" ht="15.75" customHeight="true"/>
+    <row r="506" ht="15.75" customHeight="true"/>
+    <row r="507" ht="15.75" customHeight="true"/>
+    <row r="508" ht="15.75" customHeight="true"/>
+    <row r="509" ht="15.75" customHeight="true"/>
+    <row r="510" ht="15.75" customHeight="true"/>
+    <row r="511" ht="15.75" customHeight="true"/>
+    <row r="512" ht="15.75" customHeight="true"/>
+    <row r="513" ht="15.75" customHeight="true"/>
+    <row r="514" ht="15.75" customHeight="true"/>
+    <row r="515" ht="15.75" customHeight="true"/>
+    <row r="516" ht="15.75" customHeight="true"/>
+    <row r="517" ht="15.75" customHeight="true"/>
+    <row r="518" ht="15.75" customHeight="true"/>
+    <row r="519" ht="15.75" customHeight="true"/>
+    <row r="520" ht="15.75" customHeight="true"/>
+    <row r="521" ht="15.75" customHeight="true"/>
+    <row r="522" ht="15.75" customHeight="true"/>
+    <row r="523" ht="15.75" customHeight="true"/>
+    <row r="524" ht="15.75" customHeight="true"/>
+    <row r="525" ht="15.75" customHeight="true"/>
+    <row r="526" ht="15.75" customHeight="true"/>
+    <row r="527" ht="15.75" customHeight="true"/>
+    <row r="528" ht="15.75" customHeight="true"/>
+    <row r="529" ht="15.75" customHeight="true"/>
+    <row r="530" ht="15.75" customHeight="true"/>
+    <row r="531" ht="15.75" customHeight="true"/>
+    <row r="532" ht="15.75" customHeight="true"/>
+    <row r="533" ht="15.75" customHeight="true"/>
+    <row r="534" ht="15.75" customHeight="true"/>
+    <row r="535" ht="15.75" customHeight="true"/>
+    <row r="536" ht="15.75" customHeight="true"/>
+    <row r="537" ht="15.75" customHeight="true"/>
+    <row r="538" ht="15.75" customHeight="true"/>
+    <row r="539" ht="15.75" customHeight="true"/>
+    <row r="540" ht="15.75" customHeight="true"/>
+    <row r="541" ht="15.75" customHeight="true"/>
+    <row r="542" ht="15.75" customHeight="true"/>
+    <row r="543" ht="15.75" customHeight="true"/>
+    <row r="544" ht="15.75" customHeight="true"/>
+    <row r="545" ht="15.75" customHeight="true"/>
+    <row r="546" ht="15.75" customHeight="true"/>
+    <row r="547" ht="15.75" customHeight="true"/>
+    <row r="548" ht="15.75" customHeight="true"/>
+    <row r="549" ht="15.75" customHeight="true"/>
+    <row r="550" ht="15.75" customHeight="true"/>
+    <row r="551" ht="15.75" customHeight="true"/>
+    <row r="552" ht="15.75" customHeight="true"/>
+    <row r="553" ht="15.75" customHeight="true"/>
+    <row r="554" ht="15.75" customHeight="true"/>
+    <row r="555" ht="15.75" customHeight="true"/>
+    <row r="556" ht="15.75" customHeight="true"/>
+    <row r="557" ht="15.75" customHeight="true"/>
+    <row r="558" ht="15.75" customHeight="true"/>
+    <row r="559" ht="15.75" customHeight="true"/>
+    <row r="560" ht="15.75" customHeight="true"/>
+    <row r="561" ht="15.75" customHeight="true"/>
+    <row r="562" ht="15.75" customHeight="true"/>
+    <row r="563" ht="15.75" customHeight="true"/>
+    <row r="564" ht="15.75" customHeight="true"/>
+    <row r="565" ht="15.75" customHeight="true"/>
+    <row r="566" ht="15.75" customHeight="true"/>
+    <row r="567" ht="15.75" customHeight="true"/>
+    <row r="568" ht="15.75" customHeight="true"/>
+    <row r="569" ht="15.75" customHeight="true"/>
+    <row r="570" ht="15.75" customHeight="true"/>
+    <row r="571" ht="15.75" customHeight="true"/>
+    <row r="572" ht="15.75" customHeight="true"/>
+    <row r="573" ht="15.75" customHeight="true"/>
+    <row r="574" ht="15.75" customHeight="true"/>
+    <row r="575" ht="15.75" customHeight="true"/>
+    <row r="576" ht="15.75" customHeight="true"/>
+    <row r="577" ht="15.75" customHeight="true"/>
+    <row r="578" ht="15.75" customHeight="true"/>
+    <row r="579" ht="15.75" customHeight="true"/>
+    <row r="580" ht="15.75" customHeight="true"/>
+    <row r="581" ht="15.75" customHeight="true"/>
+    <row r="582" ht="15.75" customHeight="true"/>
+    <row r="583" ht="15.75" customHeight="true"/>
+    <row r="584" ht="15.75" customHeight="true"/>
+    <row r="585" ht="15.75" customHeight="true"/>
+    <row r="586" ht="15.75" customHeight="true"/>
+    <row r="587" ht="15.75" customHeight="true"/>
+    <row r="588" ht="15.75" customHeight="true"/>
+    <row r="589" ht="15.75" customHeight="true"/>
+    <row r="590" ht="15.75" customHeight="true"/>
+    <row r="591" ht="15.75" customHeight="true"/>
+    <row r="592" ht="15.75" customHeight="true"/>
+    <row r="593" ht="15.75" customHeight="true"/>
+    <row r="594" ht="15.75" customHeight="true"/>
+    <row r="595" ht="15.75" customHeight="true"/>
+    <row r="596" ht="15.75" customHeight="true"/>
+    <row r="597" ht="15.75" customHeight="true"/>
+    <row r="598" ht="15.75" customHeight="true"/>
+    <row r="599" ht="15.75" customHeight="true"/>
+    <row r="600" ht="15.75" customHeight="true"/>
+    <row r="601" ht="15.75" customHeight="true"/>
+    <row r="602" ht="15.75" customHeight="true"/>
+    <row r="603" ht="15.75" customHeight="true"/>
+    <row r="604" ht="15.75" customHeight="true"/>
+    <row r="605" ht="15.75" customHeight="true"/>
+    <row r="606" ht="15.75" customHeight="true"/>
+    <row r="607" ht="15.75" customHeight="true"/>
+    <row r="608" ht="15.75" customHeight="true"/>
+    <row r="609" ht="15.75" customHeight="true"/>
+    <row r="610" ht="15.75" customHeight="true"/>
+    <row r="611" ht="15.75" customHeight="true"/>
+    <row r="612" ht="15.75" customHeight="true"/>
+    <row r="613" ht="15.75" customHeight="true"/>
+    <row r="614" ht="15.75" customHeight="true"/>
+    <row r="615" ht="15.75" customHeight="true"/>
+    <row r="616" ht="15.75" customHeight="true"/>
+    <row r="617" ht="15.75" customHeight="true"/>
+    <row r="618" ht="15.75" customHeight="true"/>
+    <row r="619" ht="15.75" customHeight="true"/>
+    <row r="620" ht="15.75" customHeight="true"/>
+    <row r="621" ht="15.75" customHeight="true"/>
+    <row r="622" ht="15.75" customHeight="true"/>
+    <row r="623" ht="15.75" customHeight="true"/>
+    <row r="624" ht="15.75" customHeight="true"/>
+    <row r="625" ht="15.75" customHeight="true"/>
+    <row r="626" ht="15.75" customHeight="true"/>
+    <row r="627" ht="15.75" customHeight="true"/>
+    <row r="628" ht="15.75" customHeight="true"/>
+    <row r="629" ht="15.75" customHeight="true"/>
+    <row r="630" ht="15.75" customHeight="true"/>
+    <row r="631" ht="15.75" customHeight="true"/>
+    <row r="632" ht="15.75" customHeight="true"/>
+    <row r="633" ht="15.75" customHeight="true"/>
+    <row r="634" ht="15.75" customHeight="true"/>
+    <row r="635" ht="15.75" customHeight="true"/>
+    <row r="636" ht="15.75" customHeight="true"/>
+    <row r="637" ht="15.75" customHeight="true"/>
+    <row r="638" ht="15.75" customHeight="true"/>
+    <row r="639" ht="15.75" customHeight="true"/>
+    <row r="640" ht="15.75" customHeight="true"/>
+    <row r="641" ht="15.75" customHeight="true"/>
+    <row r="642" ht="15.75" customHeight="true"/>
+    <row r="643" ht="15.75" customHeight="true"/>
+    <row r="644" ht="15.75" customHeight="true"/>
+    <row r="645" ht="15.75" customHeight="true"/>
+    <row r="646" ht="15.75" customHeight="true"/>
+    <row r="647" ht="15.75" customHeight="true"/>
+    <row r="648" ht="15.75" customHeight="true"/>
+    <row r="649" ht="15.75" customHeight="true"/>
+    <row r="650" ht="15.75" customHeight="true"/>
+    <row r="651" ht="15.75" customHeight="true"/>
+    <row r="652" ht="15.75" customHeight="true"/>
+    <row r="653" ht="15.75" customHeight="true"/>
+    <row r="654" ht="15.75" customHeight="true"/>
+    <row r="655" ht="15.75" customHeight="true"/>
+    <row r="656" ht="15.75" customHeight="true"/>
+    <row r="657" ht="15.75" customHeight="true"/>
+    <row r="658" ht="15.75" customHeight="true"/>
+    <row r="659" ht="15.75" customHeight="true"/>
+    <row r="660" ht="15.75" customHeight="true"/>
+    <row r="661" ht="15.75" customHeight="true"/>
+    <row r="662" ht="15.75" customHeight="true"/>
+    <row r="663" ht="15.75" customHeight="true"/>
+    <row r="664" ht="15.75" customHeight="true"/>
+    <row r="665" ht="15.75" customHeight="true"/>
+    <row r="666" ht="15.75" customHeight="true"/>
+    <row r="667" ht="15.75" customHeight="true"/>
+    <row r="668" ht="15.75" customHeight="true"/>
+    <row r="669" ht="15.75" customHeight="true"/>
+    <row r="670" ht="15.75" customHeight="true"/>
+    <row r="671" ht="15.75" customHeight="true"/>
+    <row r="672" ht="15.75" customHeight="true"/>
+    <row r="673" ht="15.75" customHeight="true"/>
+    <row r="674" ht="15.75" customHeight="true"/>
+    <row r="675" ht="15.75" customHeight="true"/>
+    <row r="676" ht="15.75" customHeight="true"/>
+    <row r="677" ht="15.75" customHeight="true"/>
+    <row r="678" ht="15.75" customHeight="true"/>
+    <row r="679" ht="15.75" customHeight="true"/>
+    <row r="680" ht="15.75" customHeight="true"/>
+    <row r="681" ht="15.75" customHeight="true"/>
+    <row r="682" ht="15.75" customHeight="true"/>
+    <row r="683" ht="15.75" customHeight="true"/>
+    <row r="684" ht="15.75" customHeight="true"/>
+    <row r="685" ht="15.75" customHeight="true"/>
+    <row r="686" ht="15.75" customHeight="true"/>
+    <row r="687" ht="15.75" customHeight="true"/>
+    <row r="688" ht="15.75" customHeight="true"/>
+    <row r="689" ht="15.75" customHeight="true"/>
+    <row r="690" ht="15.75" customHeight="true"/>
+    <row r="691" ht="15.75" customHeight="true"/>
+    <row r="692" ht="15.75" customHeight="true"/>
+    <row r="693" ht="15.75" customHeight="true"/>
+    <row r="694" ht="15.75" customHeight="true"/>
+    <row r="695" ht="15.75" customHeight="true"/>
+    <row r="696" ht="15.75" customHeight="true"/>
+    <row r="697" ht="15.75" customHeight="true"/>
+    <row r="698" ht="15.75" customHeight="true"/>
+    <row r="699" ht="15.75" customHeight="true"/>
+    <row r="700" ht="15.75" customHeight="true"/>
+    <row r="701" ht="15.75" customHeight="true"/>
+    <row r="702" ht="15.75" customHeight="true"/>
+    <row r="703" ht="15.75" customHeight="true"/>
+    <row r="704" ht="15.75" customHeight="true"/>
+    <row r="705" ht="15.75" customHeight="true"/>
+    <row r="706" ht="15.75" customHeight="true"/>
+    <row r="707" ht="15.75" customHeight="true"/>
+    <row r="708" ht="15.75" customHeight="true"/>
+    <row r="709" ht="15.75" customHeight="true"/>
+    <row r="710" ht="15.75" customHeight="true"/>
+    <row r="711" ht="15.75" customHeight="true"/>
+    <row r="712" ht="15.75" customHeight="true"/>
+    <row r="713" ht="15.75" customHeight="true"/>
+    <row r="714" ht="15.75" customHeight="true"/>
+    <row r="715" ht="15.75" customHeight="true"/>
+    <row r="716" ht="15.75" customHeight="true"/>
+    <row r="717" ht="15.75" customHeight="true"/>
+    <row r="718" ht="15.75" customHeight="true"/>
+    <row r="719" ht="15.75" customHeight="true"/>
+    <row r="720" ht="15.75" customHeight="true"/>
+    <row r="721" ht="15.75" customHeight="true"/>
+    <row r="722" ht="15.75" customHeight="true"/>
+    <row r="723" ht="15.75" customHeight="true"/>
+    <row r="724" ht="15.75" customHeight="true"/>
+    <row r="725" ht="15.75" customHeight="true"/>
+    <row r="726" ht="15.75" customHeight="true"/>
+    <row r="727" ht="15.75" customHeight="true"/>
+    <row r="728" ht="15.75" customHeight="true"/>
+    <row r="729" ht="15.75" customHeight="true"/>
+    <row r="730" ht="15.75" customHeight="true"/>
+    <row r="731" ht="15.75" customHeight="true"/>
+    <row r="732" ht="15.75" customHeight="true"/>
+    <row r="733" ht="15.75" customHeight="true"/>
+    <row r="734" ht="15.75" customHeight="true"/>
+    <row r="735" ht="15.75" customHeight="true"/>
+    <row r="736" ht="15.75" customHeight="true"/>
+    <row r="737" ht="15.75" customHeight="true"/>
+    <row r="738" ht="15.75" customHeight="true"/>
+    <row r="739" ht="15.75" customHeight="true"/>
+    <row r="740" ht="15.75" customHeight="true"/>
+    <row r="741" ht="15.75" customHeight="true"/>
+    <row r="742" ht="15.75" customHeight="true"/>
+    <row r="743" ht="15.75" customHeight="true"/>
+    <row r="744" ht="15.75" customHeight="true"/>
+    <row r="745" ht="15.75" customHeight="true"/>
+    <row r="746" ht="15.75" customHeight="true"/>
+    <row r="747" ht="15.75" customHeight="true"/>
+    <row r="748" ht="15.75" customHeight="true"/>
+    <row r="749" ht="15.75" customHeight="true"/>
+    <row r="750" ht="15.75" customHeight="true"/>
+    <row r="751" ht="15.75" customHeight="true"/>
+    <row r="752" ht="15.75" customHeight="true"/>
+    <row r="753" ht="15.75" customHeight="true"/>
+    <row r="754" ht="15.75" customHeight="true"/>
+    <row r="755" ht="15.75" customHeight="true"/>
+    <row r="756" ht="15.75" customHeight="true"/>
+    <row r="757" ht="15.75" customHeight="true"/>
+    <row r="758" ht="15.75" customHeight="true"/>
+    <row r="759" ht="15.75" customHeight="true"/>
+    <row r="760" ht="15.75" customHeight="true"/>
+    <row r="761" ht="15.75" customHeight="true"/>
+    <row r="762" ht="15.75" customHeight="true"/>
+    <row r="763" ht="15.75" customHeight="true"/>
+    <row r="764" ht="15.75" customHeight="true"/>
+    <row r="765" ht="15.75" customHeight="true"/>
+    <row r="766" ht="15.75" customHeight="true"/>
+    <row r="767" ht="15.75" customHeight="true"/>
+    <row r="768" ht="15.75" customHeight="true"/>
+    <row r="769" ht="15.75" customHeight="true"/>
+    <row r="770" ht="15.75" customHeight="true"/>
+    <row r="771" ht="15.75" customHeight="true"/>
+    <row r="772" ht="15.75" customHeight="true"/>
+    <row r="773" ht="15.75" customHeight="true"/>
+    <row r="774" ht="15.75" customHeight="true"/>
+    <row r="775" ht="15.75" customHeight="true"/>
+    <row r="776" ht="15.75" customHeight="true"/>
+    <row r="777" ht="15.75" customHeight="true"/>
+    <row r="778" ht="15.75" customHeight="true"/>
+    <row r="779" ht="15.75" customHeight="true"/>
+    <row r="780" ht="15.75" customHeight="true"/>
+    <row r="781" ht="15.75" customHeight="true"/>
+    <row r="782" ht="15.75" customHeight="true"/>
+    <row r="783" ht="15.75" customHeight="true"/>
+    <row r="784" ht="15.75" customHeight="true"/>
+    <row r="785" ht="15.75" customHeight="true"/>
+    <row r="786" ht="15.75" customHeight="true"/>
+    <row r="787" ht="15.75" customHeight="true"/>
+    <row r="788" ht="15.75" customHeight="true"/>
+    <row r="789" ht="15.75" customHeight="true"/>
+    <row r="790" ht="15.75" customHeight="true"/>
+    <row r="791" ht="15.75" customHeight="true"/>
+    <row r="792" ht="15.75" customHeight="true"/>
+    <row r="793" ht="15.75" customHeight="true"/>
+    <row r="794" ht="15.75" customHeight="true"/>
+    <row r="795" ht="15.75" customHeight="true"/>
+    <row r="796" ht="15.75" customHeight="true"/>
+    <row r="797" ht="15.75" customHeight="true"/>
+    <row r="798" ht="15.75" customHeight="true"/>
+    <row r="799" ht="15.75" customHeight="true"/>
+    <row r="800" ht="15.75" customHeight="true"/>
+    <row r="801" ht="15.75" customHeight="true"/>
+    <row r="802" ht="15.75" customHeight="true"/>
+    <row r="803" ht="15.75" customHeight="true"/>
+    <row r="804" ht="15.75" customHeight="true"/>
+    <row r="805" ht="15.75" customHeight="true"/>
+    <row r="806" ht="15.75" customHeight="true"/>
+    <row r="807" ht="15.75" customHeight="true"/>
+    <row r="808" ht="15.75" customHeight="true"/>
+    <row r="809" ht="15.75" customHeight="true"/>
+    <row r="810" ht="15.75" customHeight="true"/>
+    <row r="811" ht="15.75" customHeight="true"/>
+    <row r="812" ht="15.75" customHeight="true"/>
+    <row r="813" ht="15.75" customHeight="true"/>
+    <row r="814" ht="15.75" customHeight="true"/>
+    <row r="815" ht="15.75" customHeight="true"/>
+    <row r="816" ht="15.75" customHeight="true"/>
+    <row r="817" ht="15.75" customHeight="true"/>
+    <row r="818" ht="15.75" customHeight="true"/>
+    <row r="819" ht="15.75" customHeight="true"/>
+    <row r="820" ht="15.75" customHeight="true"/>
+    <row r="821" ht="15.75" customHeight="true"/>
+    <row r="822" ht="15.75" customHeight="true"/>
+    <row r="823" ht="15.75" customHeight="true"/>
+    <row r="824" ht="15.75" customHeight="true"/>
+    <row r="825" ht="15.75" customHeight="true"/>
+    <row r="826" ht="15.75" customHeight="true"/>
+    <row r="827" ht="15.75" customHeight="true"/>
+    <row r="828" ht="15.75" customHeight="true"/>
+    <row r="829" ht="15.75" customHeight="true"/>
+    <row r="830" ht="15.75" customHeight="true"/>
+    <row r="831" ht="15.75" customHeight="true"/>
+    <row r="832" ht="15.75" customHeight="true"/>
+    <row r="833" ht="15.75" customHeight="true"/>
+    <row r="834" ht="15.75" customHeight="true"/>
+    <row r="835" ht="15.75" customHeight="true"/>
+    <row r="836" ht="15.75" customHeight="true"/>
+    <row r="837" ht="15.75" customHeight="true"/>
+    <row r="838" ht="15.75" customHeight="true"/>
+    <row r="839" ht="15.75" customHeight="true"/>
+    <row r="840" ht="15.75" customHeight="true"/>
+    <row r="841" ht="15.75" customHeight="true"/>
+    <row r="842" ht="15.75" customHeight="true"/>
+    <row r="843" ht="15.75" customHeight="true"/>
+    <row r="844" ht="15.75" customHeight="true"/>
+    <row r="845" ht="15.75" customHeight="true"/>
+    <row r="846" ht="15.75" customHeight="true"/>
+    <row r="847" ht="15.75" customHeight="true"/>
+    <row r="848" ht="15.75" customHeight="true"/>
+    <row r="849" ht="15.75" customHeight="true"/>
+    <row r="850" ht="15.75" customHeight="true"/>
+    <row r="851" ht="15.75" customHeight="true"/>
+    <row r="852" ht="15.75" customHeight="true"/>
+    <row r="853" ht="15.75" customHeight="true"/>
+    <row r="854" ht="15.75" customHeight="true"/>
+    <row r="855" ht="15.75" customHeight="true"/>
+    <row r="856" ht="15.75" customHeight="true"/>
+    <row r="857" ht="15.75" customHeight="true"/>
+    <row r="858" ht="15.75" customHeight="true"/>
+    <row r="859" ht="15.75" customHeight="true"/>
+    <row r="860" ht="15.75" customHeight="true"/>
+    <row r="861" ht="15.75" customHeight="true"/>
+    <row r="862" ht="15.75" customHeight="true"/>
+    <row r="863" ht="15.75" customHeight="true"/>
+    <row r="864" ht="15.75" customHeight="true"/>
+    <row r="865" ht="15.75" customHeight="true"/>
+    <row r="866" ht="15.75" customHeight="true"/>
+    <row r="867" ht="15.75" customHeight="true"/>
+    <row r="868" ht="15.75" customHeight="true"/>
+    <row r="869" ht="15.75" customHeight="true"/>
+    <row r="870" ht="15.75" customHeight="true"/>
+    <row r="871" ht="15.75" customHeight="true"/>
+    <row r="872" ht="15.75" customHeight="true"/>
+    <row r="873" ht="15.75" customHeight="true"/>
+    <row r="874" ht="15.75" customHeight="true"/>
+    <row r="875" ht="15.75" customHeight="true"/>
+    <row r="876" ht="15.75" customHeight="true"/>
+    <row r="877" ht="15.75" customHeight="true"/>
+    <row r="878" ht="15.75" customHeight="true"/>
+    <row r="879" ht="15.75" customHeight="true"/>
+    <row r="880" ht="15.75" customHeight="true"/>
+    <row r="881" ht="15.75" customHeight="true"/>
+    <row r="882" ht="15.75" customHeight="true"/>
+    <row r="883" ht="15.75" customHeight="true"/>
+    <row r="884" ht="15.75" customHeight="true"/>
+    <row r="885" ht="15.75" customHeight="true"/>
+    <row r="886" ht="15.75" customHeight="true"/>
+    <row r="887" ht="15.75" customHeight="true"/>
+    <row r="888" ht="15.75" customHeight="true"/>
+    <row r="889" ht="15.75" customHeight="true"/>
+    <row r="890" ht="15.75" customHeight="true"/>
+    <row r="891" ht="15.75" customHeight="true"/>
+    <row r="892" ht="15.75" customHeight="true"/>
+    <row r="893" ht="15.75" customHeight="true"/>
+    <row r="894" ht="15.75" customHeight="true"/>
+    <row r="895" ht="15.75" customHeight="true"/>
+    <row r="896" ht="15.75" customHeight="true"/>
+    <row r="897" ht="15.75" customHeight="true"/>
+    <row r="898" ht="15.75" customHeight="true"/>
+    <row r="899" ht="15.75" customHeight="true"/>
+    <row r="900" ht="15.75" customHeight="true"/>
+    <row r="901" ht="15.75" customHeight="true"/>
+    <row r="902" ht="15.75" customHeight="true"/>
+    <row r="903" ht="15.75" customHeight="true"/>
+    <row r="904" ht="15.75" customHeight="true"/>
+    <row r="905" ht="15.75" customHeight="true"/>
+    <row r="906" ht="15.75" customHeight="true"/>
+    <row r="907" ht="15.75" customHeight="true"/>
+    <row r="908" ht="15.75" customHeight="true"/>
+    <row r="909" ht="15.75" customHeight="true"/>
+    <row r="910" ht="15.75" customHeight="true"/>
+    <row r="911" ht="15.75" customHeight="true"/>
+    <row r="912" ht="15.75" customHeight="true"/>
+    <row r="913" ht="15.75" customHeight="true"/>
+    <row r="914" ht="15.75" customHeight="true"/>
+    <row r="915" ht="15.75" customHeight="true"/>
+    <row r="916" ht="15.75" customHeight="true"/>
+    <row r="917" ht="15.75" customHeight="true"/>
+    <row r="918" ht="15.75" customHeight="true"/>
+    <row r="919" ht="15.75" customHeight="true"/>
+    <row r="920" ht="15.75" customHeight="true"/>
+    <row r="921" ht="15.75" customHeight="true"/>
+    <row r="922" ht="15.75" customHeight="true"/>
+    <row r="923" ht="15.75" customHeight="true"/>
+    <row r="924" ht="15.75" customHeight="true"/>
+    <row r="925" ht="15.75" customHeight="true"/>
+    <row r="926" ht="15.75" customHeight="true"/>
+    <row r="927" ht="15.75" customHeight="true"/>
+    <row r="928" ht="15.75" customHeight="true"/>
+    <row r="929" ht="15.75" customHeight="true"/>
+    <row r="930" ht="15.75" customHeight="true"/>
+    <row r="931" ht="15.75" customHeight="true"/>
+    <row r="932" ht="15.75" customHeight="true"/>
+    <row r="933" ht="15.75" customHeight="true"/>
+    <row r="934" ht="15.75" customHeight="true"/>
+    <row r="935" ht="15.75" customHeight="true"/>
+    <row r="936" ht="15.75" customHeight="true"/>
+    <row r="937" ht="15.75" customHeight="true"/>
+    <row r="938" ht="15.75" customHeight="true"/>
+    <row r="939" ht="15.75" customHeight="true"/>
+    <row r="940" ht="15.75" customHeight="true"/>
+    <row r="941" ht="15.75" customHeight="true"/>
+    <row r="942" ht="15.75" customHeight="true"/>
+    <row r="943" ht="15.75" customHeight="true"/>
+    <row r="944" ht="15.75" customHeight="true"/>
+    <row r="945" ht="15.75" customHeight="true"/>
+    <row r="946" ht="15.75" customHeight="true"/>
+    <row r="947" ht="15.75" customHeight="true"/>
+    <row r="948" ht="15.75" customHeight="true"/>
+    <row r="949" ht="15.75" customHeight="true"/>
+    <row r="950" ht="15.75" customHeight="true"/>
+    <row r="951" ht="15.75" customHeight="true"/>
+    <row r="952" ht="15.75" customHeight="true"/>
+    <row r="953" ht="15.75" customHeight="true"/>
+    <row r="954" ht="15.75" customHeight="true"/>
+    <row r="955" ht="15.75" customHeight="true"/>
+    <row r="956" ht="15.75" customHeight="true"/>
+    <row r="957" ht="15.75" customHeight="true"/>
+    <row r="958" ht="15.75" customHeight="true"/>
+    <row r="959" ht="15.75" customHeight="true"/>
+    <row r="960" ht="15.75" customHeight="true"/>
+    <row r="961" ht="15.75" customHeight="true"/>
+    <row r="962" ht="15.75" customHeight="true"/>
+    <row r="963" ht="15.75" customHeight="true"/>
+    <row r="964" ht="15.75" customHeight="true"/>
+    <row r="965" ht="15.75" customHeight="true"/>
+    <row r="966" ht="15.75" customHeight="true"/>
+    <row r="967" ht="15.75" customHeight="true"/>
+    <row r="968" ht="15.75" customHeight="true"/>
+    <row r="969" ht="15.75" customHeight="true"/>
+    <row r="970" ht="15.75" customHeight="true"/>
+    <row r="971" ht="15.75" customHeight="true"/>
+    <row r="972" ht="15.75" customHeight="true"/>
+    <row r="973" ht="15.75" customHeight="true"/>
+    <row r="974" ht="15.75" customHeight="true"/>
+    <row r="975" ht="15.75" customHeight="true"/>
+    <row r="976" ht="15.75" customHeight="true"/>
+    <row r="977" ht="15.75" customHeight="true"/>
+    <row r="978" ht="15.75" customHeight="true"/>
+    <row r="979" ht="15.75" customHeight="true"/>
+    <row r="980" ht="15.75" customHeight="true"/>
+    <row r="981" ht="15.75" customHeight="true"/>
+    <row r="982" ht="15.75" customHeight="true"/>
+    <row r="983" ht="15.75" customHeight="true"/>
+    <row r="984" ht="15.75" customHeight="true"/>
+    <row r="985" ht="15.75" customHeight="true"/>
+    <row r="986" ht="15.75" customHeight="true"/>
+    <row r="987" ht="15.75" customHeight="true"/>
+    <row r="988" ht="15.75" customHeight="true"/>
+    <row r="989" ht="15.75" customHeight="true"/>
+    <row r="990" ht="15.75" customHeight="true"/>
+    <row r="991" ht="15.75" customHeight="true"/>
+    <row r="992" ht="15.75" customHeight="true"/>
+    <row r="993" ht="15.75" customHeight="true"/>
+    <row r="994" ht="15.75" customHeight="true"/>
+    <row r="995" ht="15.75" customHeight="true"/>
+    <row r="996" ht="15.75" customHeight="true"/>
+    <row r="997" ht="15.75" customHeight="true"/>
+    <row r="998" ht="15.75" customHeight="true"/>
+    <row r="999" ht="15.75" customHeight="true"/>
+    <row r="1000" ht="15.75" customHeight="true"/>
+    <row r="1001" ht="15.75" customHeight="true"/>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -3642,40 +3666,11 @@
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.39573804891464898" bottom="0.33156431125281399" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait"/>
+  <printOptions horizontalCentered="true"/>
+  <pageMargins left="0.25" right="0.25" top="0.395738048914649" bottom="0.331564311252814" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" orientation="portrait" paperSize="9"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3707,14 +3702,14 @@
         <v>2</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="90"/>
       <c r="E1" s="91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
@@ -3742,12 +3737,12 @@
       <c r="A2" s="86"/>
       <c r="B2" s="88"/>
       <c r="C2" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
-      <c r="E2" s="82"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -3775,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="42">
         <v>35</v>
@@ -3811,7 +3806,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="47">
         <v>120</v>
@@ -3847,7 +3842,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="47">
         <v>120</v>
@@ -3883,7 +3878,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="47">
         <v>120</v>
@@ -3919,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="47">
         <v>120</v>
@@ -3955,7 +3950,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="47">
         <v>120</v>
@@ -3991,7 +3986,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="47">
         <v>120</v>
@@ -4027,7 +4022,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="47">
         <v>120</v>
@@ -4063,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="47">
         <v>35</v>
@@ -4099,7 +4094,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="47">
         <v>35</v>
@@ -4135,7 +4130,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="47">
         <v>35</v>
@@ -4171,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="47">
         <v>35</v>
@@ -4207,7 +4202,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="47">
         <v>35</v>
@@ -4243,7 +4238,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="47">
         <v>35</v>
@@ -4279,7 +4274,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="47">
         <v>70</v>
@@ -4315,7 +4310,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="47">
         <v>70</v>
@@ -4351,7 +4346,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="47">
         <v>70</v>
@@ -4387,7 +4382,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="47">
         <v>70</v>
@@ -4423,7 +4418,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="47">
         <v>70</v>
@@ -4459,7 +4454,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="47">
         <v>70</v>
@@ -4495,7 +4490,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="47">
         <v>70</v>
@@ -4531,7 +4526,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="47">
         <v>120</v>
@@ -4567,7 +4562,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="47">
         <v>120</v>
@@ -4603,7 +4598,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="47">
         <v>120</v>
@@ -4639,7 +4634,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="47">
         <v>120</v>
@@ -4675,7 +4670,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="47">
         <v>120</v>
@@ -4711,7 +4706,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="47">
         <v>120</v>
@@ -4747,7 +4742,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="47">
         <v>280</v>
@@ -4783,7 +4778,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="52">
         <v>280</v>
@@ -4819,7 +4814,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C32" s="54">
         <v>50</v>
@@ -4853,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="54">
         <v>80</v>
@@ -4889,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="54">
         <v>110</v>
@@ -4923,7 +4918,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="54">
         <v>65</v>
@@ -4957,7 +4952,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="48"/>
@@ -4989,7 +4984,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="52">
         <v>100</v>
@@ -5025,14 +5020,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="52"/>
       <c r="D38" s="48">
         <v>800</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -5061,7 +5056,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="48">
